--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD4_Countries_150519b.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD4_Countries_150519b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Campo</t>
   </si>
@@ -134,9 +134,6 @@
     <t>El country manager asignado al país. Todos los países del mundo tienen un CM</t>
   </si>
   <si>
-    <t>Booleano</t>
-  </si>
-  <si>
     <t>Y/N</t>
   </si>
   <si>
@@ -159,13 +156,22 @@
   </si>
   <si>
     <t>El nombre del país, en inglés.</t>
+  </si>
+  <si>
+    <t>Ob</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,17 +180,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="MS Sans Serif"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="MS Sans Serif"/>
     </font>
   </fonts>
   <fills count="3">
@@ -228,34 +236,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,247 +551,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="5"/>
-    <col min="6" max="6" width="32.85546875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="4">
+        <v>255</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4">
         <v>255</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
-        <v>255</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
